--- a/aeri2015_data_reconciled.xlsx
+++ b/aeri2015_data_reconciled.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Uploaded to GitHub and finalized\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE86B11-1FED-459F-AAA0-99D670740605}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D09921-0EF8-4F87-A6E5-593452A010B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14568" windowHeight="3120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -852,100 +847,7 @@
     <t>Concurrent</t>
   </si>
   <si>
-    <t>http://aeri2015.umd.edu/session-3-contextualizing-archival-traditions/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-4-archives-and-the-body/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-5-studies-in-social-media/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/workshop-1/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/workshop-2/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-6-pedagogical-approaches/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-7-access-to-government-archives/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/program/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-8-archives-records-and-human-rights/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-9-digital-preservation/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-10-studies-in-records-creation/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-11-archival-description-and-access-systems/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-12-archives-and-cultural-contexts/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-13-perspectives-on-visual-archives/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/workshop-3/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-14-methods-and-approaches-to-study-archives/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-15-examinations-of-digital-archives/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-16-archival-history/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-17-access-classification-and-privacy/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-18-perspectives-on-being-an-archival-academic/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/workshop-4/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-19-issues-in-moving-image-archives/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-20-data-curation/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-21-race-gender-and-archives/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/keynote-speakers/#ferriter</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-22-participatory-archiving/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-23-evaluating-archives-in-digital-space/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/workshop-5/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-24-interrogating-digital-archives/</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-25-understanding-archives-in-museums/</t>
-  </si>
-  <si>
     <t>Poster</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/poster-abstracts/</t>
   </si>
   <si>
     <t>Richard Marciano;  Michael Kurtz</t>
@@ -1159,9 +1061,6 @@
     <t>Session 8: Archives, Records, and Human Rights</t>
   </si>
   <si>
-    <t>Wendy M. Duff (Presenter); Heather MacNeil; Karolina Zuchniak; Janel Cheng</t>
-  </si>
-  <si>
     <t>Bing Zhang; Ning Zhang; Qing Ma</t>
   </si>
   <si>
@@ -1178,9 +1077,6 @@
   </si>
   <si>
     <t>Poster Session</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/keynote-speakers/</t>
   </si>
   <si>
     <t>An increasingly digital government (eGovernment) that harnesses interactive technology, engages its citizens, works through public-private partnerships, leverages open data, and promotes the use of “smart” technologies is turning our information policies and the notion of the information lifecycle on their heads. We have entered a new era of preservation, one that redefines the notion of a record — and the public record — from a linear model based on finite points from creation to disposition to one that is continuous and ongoing. Moving forward, we will have difficulty in identifying a discrete beginning and end point to our policies, our records, our documents, our materials. The steady march towards eGovernment means that we need to rethink what it is to preserve our record and ensure an open, transparent, and accountable government that increasingly relies on ongoing conversations with its citizens and information and data that are diffused across a range of technologies and partners. This presentation focuses on the implications of eGovernment on the archival sphere.</t>
@@ -1201,9 +1097,6 @@
 These parallel and growing bodies of research study related kinds of initiatives driven by shared beliefs in the power of information professionals and cultural heritage institutions to promote justice. Yet, thus far, few connections have been made between the social justice work of archives and the social justice work of libraries. To hopefully encourage such dialogue, this presentation will consider the definitions of and approaches to social justice employed by archives and by libraries, explore the ways in which archival research and library research each approach issues of social justice, and propose ways in which the two streams of research can learn from and build upon one another to craft a larger scholarly narrative about the impact of cultural heritage institutions on social justice.</t>
   </si>
   <si>
-    <t>http://aeri2015.umd.edu/session-1/</t>
-  </si>
-  <si>
     <t>In our AERI 2014 paper, Anne Gilliland and I reflected on our engagement in research in Australia and the states emerging out of the former Yugoslavia relating to the role of recordkeeping and archiving in human rights and social justice contexts, and in post-conflict societies. We described how this research has led us to re-think participatory archiving. Based on our research findings, a review of relevant critical literature in archival studies, and our own immersive experiences over many years as archival and recordkeeping researchers, and as educators and practitioners, we presented an integrated set of rights in records that acknowledge and respect the interests of the different agents who are involved or implicated in records and recordkeeping processes. We also presented the set of guiding principles that informed the development of the suite of rights. Our focus in the 2014 paper was on conceptualising a radically different archival culture and practice. We acknowledged that fully implementing this suite of rights and its guiding principles in the context of current mainstream archival culture and practice would be highly challenging if not impossible as it would be dependent upon the transformation of professional culture, priorities and practices. However some of the rights are more immediately achievable and their implementation in the short-term would contribute to the long-term transformation of practice. This presentation will propose long- and short-term action agendas with reference to local and global contexts. It will explore both long-term transformative actions and more immediate approaches to partial implementation of the suite of rights in participatory archives. It will also explore how the guiding principles might be used to re-structure existing archives along more participatory lines.</t>
   </si>
   <si>
@@ -1213,9 +1106,6 @@
   </si>
   <si>
     <t>Records and information management (RIM) is a growing need for many organizations. RIM professionals contribute to making organizations more effective and efficient, and therefore, more profitable. Moreover, RIM professionals also help reduce certain risk for organizations, such as legal or compliance. Despite the increasing need for RIM professionals, the future of the RIM professional remains in flux. There is a clear divide between expectations of employers for what constitutes a RIM professional and educational programs that try their best to prepare students to be these professionals. In short, the state of RIM education in academia has received little attention. Educators in archival studies continue to examine the nature of archival education but have overlooked the unique nature and needs of RIM professionals. Drawing on research that compares the activities and duties of RIM job announcements with RIM syllabi and topics at RIM conferences, this presentation evaluates the current state of RIM education in academia and discusses the future of the RIM professional. The presentation will explore the growing schism between the archives and RIM professions in North America and the implications of this division for archival studies programs, such as the School of Information Studies at the University of Wisconsin – Milwaukee.</t>
-  </si>
-  <si>
-    <t>http://aeri2015.umd.edu/session-2-archival-education-in-the-digital-age/</t>
   </si>
   <si>
     <t>The need for education in archives and records management cannot be over-emphasised especially in this era of technological developments. Education can help to empower archivists and records managers in tackling the challenges of managing records created in networked environments such as ensuring security, authenticity and integrity of records. In view of the tectonic shifts that have taken place within Africa, particularly South Africa and the use of social media in innovative ways, archives and records management professionals’ demands have changed. Additionally, the pressure for accountability is increasing. In the past there has been general weakness in accountability mechanisms and there is hope that new opportunities are brought about by digital access. Therefore, there is a need to align the curriculum at higher learning institutions in South Africa to also embrace records created in networked environments. This study will examine the archives and records management curricula in different educational institutions in South Africa and investigate the extent to which they address the changing digital environment. First, the websites of all 25 public universities in South Africa will be visited to identify schools offering archives and records management programmes. This will be followed by content analysis of the curricula of universities that offer archives and records management programme from the website. Lastly, the faculty members responsible for teaching these programmes will be interviewed. It is hoped that the study will inform curriculum development and review in the area of electronic records management at the universities in South Africa. It is recommended that the study be extended to the rest of universities in the Africa.</t>
@@ -1268,14 +1158,6 @@
 The *open web* is a particular sociotechnical assemblage with the following technical properties: *open standards*, *open access*, and *open publishing*. Open standards are the non-propriety and publicly documented technical specifications that allow systems to share data and information. Open access means web content is retrievable by anyone, anywhere without technical restrictions or paywalls (note: this does not imply open licensing). Open publishing means there are no barriers to putting content on the web, meaning there is no editorial control or peer review (note: this does not mean all websites are open, just the platform as a whole). These technical properties set conditions of possibility for new modalities of scholarly discourse (and the study of that discourse).
 The technical properties of the open web afford new modes of scholarly communication, but do not determine them. Scholarly communities have social and cultural factors imbricated in a mutually constitutive relationship with the technologies by which they interact. The digital humanities community has embraced the open web, especially blogs, as a platform for communication. Digital humanists blog at a pace and scale unprecedented in the humanities, and possibly in the academy as a whole. This *visibility at scale* challenges the traditional methodologies we use to study infrastructure and scholarly communication.
 This paper seeks to answer the questions: What are digital humanities scholars writing about on their blogs? What are the methodological dynamics and tensions in generating data from the open web? I present a topic model of nearly 40 thousand posts by digital humanities bloggers, explore how the results inform new models of informal scholarly communication, and discuss implications of web archives of the (in)visible scholarly record.</t>
-  </si>
-  <si>
-    <t>Social media applications are increasingly being used by government agencies to transact official business with their various communities. In an Australian Government context these sites may be records. Records that exist outside the boundaries of the organisation to which they relate, and which created them, unless they are somehow at a later date captured into organisational systems, but are still subject to relevant legislative processes such as Freedom of Information and recordkeeping obligations (Hesling 2014).
-While existing outside the organisation which has created them, these records enable cooperation and interaction with the communities with which the organisation needs to communicate. However, these interactions do not necessarily represent a clear or transparent business transaction. By its very nature social media is reconfiguring our notions of transparency and accountability (Scott and Orlikowski 2012).
-This paper draws on some initial themes from my own research to explore how organisational processes and the proprietary and socially mediated nature of social media may affect our notions of records, transactions, accountability and transparency in relation to government recordkeeping in an age of social media.
-Works Cited:
-Hesling, Elisa. 2014. “Records, social media and the right to access: the social media conundrum.” Records and Information Management Professionals Australasia National Conference, Adelaide, S.A., 8 September 2014.
-Scott, Susan V, and Wanda J Orlikowski. 2012. “Reconfiguring relations of accountability: Materialization of social media in the travel sector.” Accounting, organizations and society 37 (1): 26-40.</t>
   </si>
   <si>
     <t>University of Technology Sydney</t>
@@ -1489,9 +1371,6 @@
 This paper draws on the literature of career preparation and the experience of early career professionals, in particular the work of Marian Hoy (2010), to sketch a roadmap for the beginning archival academic. It also draws on the author’s experience of the Australian academic environment over the last three decades.
 Reference:
 Hoy, M. (2010). Through their eyes: Experiences of early professional learners in collecting institutions. (PhD), University of Canberra. </t>
-  </si>
-  <si>
-    <t>University of Maryland; University of Maryland; University of Pittsburgh; University of California Riverside</t>
   </si>
   <si>
     <t>Requirements:
@@ -1537,16 +1416,6 @@
   <si>
     <t>Data sharing and reuse has become a priority for many grant funding organizations, research institutions, publishers, and individual researchers. The potential for new combinations and analyses of data to reveal novel patterns and findings has made data sharing an important concern across a spectrum of research topics and methods. Methods for sharing research data range from person-to-person correspondence about data to datasets added to repositories created for a given discipline, data type, publication venue, or institution. These methods permit various kinds of communication about data as well, from informal communication to the standardized metadata and documentation required by some repositories. Data sharing infrastructure is being developed through the collaboration of numerous stakeholders, often from a particular research context with a deep understanding of the practices they intend to support. Anticipating the needs of interdisciplinary data reuse, however, is more complicated.
 This study examines the ways that members of an interdisciplinary research team share their data with each other and, in particular, the ways they communicate about the data they collect in order to make datasets meaningful and usable to other researchers in the team. This presentation is based on interviews and observations with members of an academic research team examining people’s responses to water quality problems in a community in the developing world. They are environmental scientists and sociologists using both observational data, collected from a variety of instruments, and interview data, obtained from members of the community. While team members understand how to use shared data emerging from their own disciplinary methods, they have a difficult time understanding how to analyze the data created by their colleagues: the sociologists are unsure how to make use of the environmental science data, and vice versa. By uncovering the communication tactics of this team, this presentation will shed light on some of the necessary elements for making data reuse possible outside a single discipline</t>
-  </si>
-  <si>
-    <t>The concept of provenance as a controlling principle in archival theory and practice has remained the profession’s mainstay for generations (Bearman and Lytle 1985; Nesmith 1993). However, in recent decades we have seen the term “provenance” expand to represent the capture of contextual and chain of custody information within digital environments as well as acting as a principle of arrangement in traditional, paper-based environments. Continuum theorists speak of “multiple” and “parallel” provenance (Evans et al. 2005). Post-modern and post-colonial thinkers have developed notions of “social provenance” in communities of records (Bastian 2006) and “provenance as ethnicity” (Wurl 2005). In fact, with the advent of digital curation and digital preservation, “provenance” has also come to refer to a specific type of metadata (Hedges et al. 2012). Even computer scientists use the term to represent the granular scientific workflows that support the development of scientific data sets (Amsterdamer et al. 2012). This paper will present a comparative view of a variety of conceptualizations of provenance being used in traditional archives, digital preservation, digital and data curation, and computer science. The goal is to improve the ability of archivists and digital curators to communicate better among themselves, as well as with the information technologists and computer scientists with whom they work when engaging in digital and data curation activities.
-References:
-Amsterdamer, Y., S. Davidson, D. Deutch, T. Milo, J. Stoyanovich, and V. Tannen. “Putting Lipstick on a Pig: Enabling Database-Style Workflow Provenance.” Proceedings of the VLDB Endowment 5 (4), 346-357. Available at http://arxiv.org/pdf/1201.0231.pdf.
-Bastian, J. “Reading Colonial Records Through an Archival Lens: The Provenance of Place, Space and Creation.” Archival Science 6:267–284.
-Bearman, D. and R. Lytle. “The Power of the Principle of Provenance.” Archivaria (1985) 21: 14-27.
-Evans, J., S. McKemmish, and K. Bhoday. “Create Once, Use Many Times: The Clever Use of Recordkeeping Metadata for Multiple Archival Purposes.” Archival Science (2005) 5: 27-42.
-Hedges, Mark, Tobias Blanke, Stella Fabiane, Gareth Knight, and Eric Liao. “Sheer Curation of Experiments: Data, Process, Provenance.” Journal of Digital Information, 13 (1) March 2012. Available at: https://journals.tdl.org/jodi/index.php/jodi/article/view/5883/5890. Date accessed: 06 Feb. 2015.
-Nesmith, T. Canadian Archival Studies and the Rediscovery of Provenance. Metuchen, New Jersey: Association of Canadian Archivists and SAA, 1993.</t>
   </si>
   <si>
     <t>This presentation will present findings gathered via ethnographic methods for the dissertation. The dissertation explores how archives capture black lesbian experiences and how those materials are subsequently used. It employs comparative case study design at June Mazer Lesbian Archives, Schomberg Center for Research in Black Culture, and Lesbian Herstory Archive and interviews with archivist and researchers. The dissertation asks: how does record keeping culture affect black lesbian presence in archives and how do researchers access black lesbian materials and employ them in their research? The dissertation explores how recordkeeping cultures create or exacerbate silences in the historical record and how scholars navigate gaps when they access black lesbian archival records.
@@ -1643,13 +1512,6 @@
     <t xml:space="preserve">Michelle Caswell; Joanne Evans; Lorraine Richards </t>
   </si>
   <si>
-    <t>Archival practice in the Middle East, and the scholarship that seeks to study it, must grapple with the dual challenge of, on the one hand, thinking critically about the transmission of western paradigms, methods and goals while adapting the insights and knowledge of a tradition most often associated with the west; and of combating the Orientalist tendency to essentialize the cultures and societies as timeless and monolithic, on the other hand (Mejcher-Atassi &amp; Schwartz 2012, 1). This profound challenge is further exasperated by the general lack of information studies departments at the graduate level, not to mention programmes in archives and records management, in the region. Archival scholarship outside the region boasts an extensive literature, but one that deals largely with western archives and settings to the neglect of those of the Arab world, as well as other non-western settings. Hence, while much as been written about museums, archives and libraries (LAMs), this is not the case where the Arab world is concerned.
-Against this background, my poster outlines the necessity, rationale and context of a research project that seeks to fill the gaps in our knowledge of archives in Arab settings. This research is concerned with how archives in and of Lebanon can show the lives of the country’s people outside of elitist and paternalistic frameworks, and within the conditions of ongoing war and material heritage destruction. In what circumstances and for what ends do archives in Lebanon and the region operate? What stories do they allow us to tell? And how can scholarship critique, intervene in, and make sense of them? In considering these questions, I aim to develop intellectual work that contributes to the multifaceted efforts of people in the Middle East to grapple with histories and memories of violence and conflict in the region. This research is situated within a larger body of relatively recent scholarship concerned with interrogating the dynamic and complex relationships between history, memory, material heritage and politics in an Arab world often stereotyped as hung up on its past, unable to change, and hostile to modernity (Volk 2008, 292). It also addresses the increasing interest of archival scholarship in exploring issues of memory, identity and power, as well as archives in non-western and postcolonial settings.
-Works Cited:
-Mejcher-Atassi, Sonja and John Pedro Schwartz (eds.). (2012). Archives, Museums and Collecting Practices in the Modern Arab World. Surrey, England: Ashgate Publishing.
-Volk, Lucia. (May 2008). When Memory Repeats Itself: The Politics of Heritage in Post Civil War Lebanon. International Journal of Middle East Studies 40(2): 291-314.</t>
-  </si>
-  <si>
     <t>Architectural firms have been using computers as an integral part of everyday practice since the 1970s. With the shift to digital design and asset management within contemporary architectural practice, libraries, archives, and museums face new challenges in the acquisition, appraisal, and preservation of records. Firms produce and manage a variety of digital records – drawings, photographs, specifications, and correspondence – many of which are created using proprietary software. In addition to the digital files so generated, many firms still print and make changes on paper drawings and retain legally required documentation. Preserving artifacts to document architectural practice requires understanding digital record creation as well as the paper production of a firm.
 Long-term preservation of records is not generally a high priority in the deadline-driven contemporary architectural environment, but preserving artifacts has been a high priority for archives that function as stewards of architectural materials. Changes in the way architects work and the technology used must be examined in order to develop criteria for preserving contemporary architectural artifacts. This paper will explore the history of technology development for the architecture industry and the diffusion of knowledge about computer-aided design (CAD) and building information modeling (BIM) in architectural practice, with a particular emphasis on the flow of information between influential theorists, firms, professional organizations, and software companies.
 Drawing on the American Institute of Architects archival resources, industry publications, and architectural theory, I will examine the changing use of computer technology in architecture. The focus is on changing technologies and changing practices, specifically how these changes over time have resulted in new artifacts with implications for archival preservation.</t>
@@ -1675,6 +1537,139 @@
   </si>
   <si>
     <t xml:space="preserve">Smithsonian Institution </t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/keynote-speakers/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-1/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-2-archival-education-in-the-digital-age/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-3-contextualizing-archival-traditions/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-4-archives-and-the-body/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-5-studies-in-social-media/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/workshop-1/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/workshop-2/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-6-pedagogical-approaches/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-7-access-to-government-archives/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/program/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-8-archives-records-and-human-rights/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-9-digital-preservation/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-10-studies-in-records-creation/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-11-archival-description-and-access-systems/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-12-archives-and-cultural-contexts/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-13-perspectives-on-visual-archives/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/workshop-3/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-14-methods-and-approaches-to-study-archives/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-15-examinations-of-digital-archives/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-16-archival-history/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-17-access-classification-and-privacy/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-18-perspectives-on-being-an-archival-academic/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/workshop-4/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-19-issues-in-moving-image-archives/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-20-data-curation/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-21-race-gender-and-archives/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/keynote-speakers/#ferriter; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-22-participatory-archiving/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-23-evaluating-archives-in-digital-space/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/workshop-5/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-24-interrogating-digital-archives/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/session-25-understanding-archives-in-museums/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri2015.umd.edu/poster-abstracts/; https://github.com/hsoyka/AERI/blob/master/AERI%202015%20Program.pdf</t>
+  </si>
+  <si>
+    <t>Social media applications are increasingly being used by government agencies to transact official business with their various communities. In an Australian Government context these sites may be records. Records that exist outside the boundaries of the organisation to which they relate, and which created them, unless they are somehow at a later date captured into organisational systems, but are still subject to relevant legislative processes such as Freedom of Information and recordkeeping obligations (Hesling 2014).
+While existing outside the organisation which has created them, these records enable cooperation and interaction with the communities with which the organisation needs to communicate. However, these interactions do not necessarily represent a clear or transparent business transaction. By its very nature social media is reconfiguring our notions of transparency and accountability (Scott and Orlikowski 2012).
+This paper draws on some initial themes from my own research to explore how organisational processes and the proprietary and socially mediated nature of social media may affect our notions of records, transactions, accountability and transparency in relation to government recordkeeping in an age of social media.
+Works Cited:
+Hesling, Elisa. 2014. “Records, social media and the right to access: the social media conundrum.” Records and Information Management Professionals Australasia National Conference, Adelaide, S.A., 8 September 2014.
+Scott, Susan V, and Wanda J Orlikowski. 2012. “Reconfiguring relations of accountability: Materialization of social media in the travel sector.” Accounting, organizations and society 37 (1): 26-40.</t>
+  </si>
+  <si>
+    <t>Wendy M. Duff; Heather MacNeil; Karolina Zuchniak; Janel Cheng</t>
+  </si>
+  <si>
+    <t>University of Maryland; University of Maryland; University of Maryland; University of Pittsburgh; University of California Riverside</t>
+  </si>
+  <si>
+    <t>The concept of provenance as a controlling principle in archival theory and practice has remained the profession’s mainstay for generations (Bearman and Lytle 1985; Nesmith 1993). However, in recent decades we have seen the term “provenance” expand to represent the capture of contextual and chain of custody information within digital environments as well as acting as a principle of arrangement in traditional, paper-based environments. Continuum theorists speak of “multiple” and “parallel” provenance (Evans et al. 2005). Post-modern and post-colonial thinkers have developed notions of “social provenance” in communities of records (Bastian 2006) and “provenance as ethnicity” (Wurl 2005). In fact, with the advent of digital curation and digital preservation, “provenance” has also come to refer to a specific type of metadata (Hedges et al. 2012). Even computer scientists use the term to represent the granular scientific workflows that support the development of scientific data sets (Amsterdamer et al. 2012). This paper will present a comparative view of a variety of conceptualizations of provenance being used in traditional archives, digital preservation, digital and data curation, and computer science. The goal is to improve the ability of archivists and digital curators to communicate better among themselves, as well as with the information technologists and computer scientists with whom they work when engaging in digital and data curation activities.
+References:
+Amsterdamer, Y., S. Davidson, D. Deutch, T. Milo, J. Stoyanovich, and V. Tannen. “Putting Lipstick on a Pig: Enabling Database-Style Workflow Provenance.” Proceedings of the VLDB Endowment 5 (4), 346-357. Available at http://arxiv.org/pdf/1201.0231.pdf.
+Bastian, J. “Reading Colonial Records Through an Archival Lens: The Provenance of Place, Space and Creation.” Archival Science 6:267–284.
+Bearman, D. and R. Lytle. “The Power of the Principle of Provenance.” Archivaria (1985) 21: 14-27.
+Evans, J., S. McKemmish, and K. Bhoday. “Create Once, Use Many Times: The Clever Use of Recordkeeping Metadata for Multiple Archival Purposes.” Archival Science (2005) 5: 27-42.
+Hedges, Mark, Tobias Blanke, Stella Fabiane, Gareth Knight, and Eric Liao. “Sheer Curation of Experiments: Data, Process, Provenance.” Journal of Digital Information, 13 (1) March 2012. Available at: https://journals.tdl.org/jodi/index.php/jodi/article/view/5883/5890. Date accessed: 06 Feb. 2015.
+Nesmith, T. Canadian Archival Studies and the Rediscovery of Provenance. Metuchen, New Jersey: Association of Canadian Archivists and SAA, 1993.</t>
+  </si>
+  <si>
+    <t>Archival practice in the Middle East, and the scholarship that seeks to study it, must grapple with the dual challenge of, on the one hand, thinking critically about the transmission of western paradigms, methods and goals while adapting the insights and knowledge of a tradition most often associated with the west; and of combating the Orientalist tendency to essentialize the cultures and societies as timeless and monolithic, on the other hand (Mejcher-Atassi &amp; Schwartz 2012, 1). This profound challenge is further exasperated by the general lack of information studies departments at the graduate level, not to mention programmes in archives and records management, in the region. Archival scholarship outside the region boasts an extensive literature, but one that deals largely with western archives and settings to the neglect of those of the Arab world, as well as other non-western settings. Hence, while much as been written about museums, archives and libraries (LAMs), this is not the case where the Arab world is concerned.
+Against this background, my poster outlines the necessity, rationale and context of a research project that seeks to fill the gaps in our knowledge of archives in Arab settings. This research is concerned with how archives in and of Lebanon can show the lives of the country’s people outside of elitist and paternalistic frameworks, and within the conditions of ongoing war and material heritage destruction. In what circumstances and for what ends do archives in Lebanon and the region operate? What stories do they allow us to tell? And how can scholarship critique, intervene in, and make sense of them? In considering these questions, I aim to develop intellectual work that contributes to the multifaceted efforts of people in the Middle East to grapple with histories and memories of violence and conflict in the region. This research is situated within a larger body of relatively recent scholarship concerned with interrogating the dynamic and complex relationships between history, memory, material heritage and politics in an Arab world often stereotyped as hung up on its past, unable to change, and hostile to modernity (Volk 2008, 292). It also addresses the increasing interest of archival scholarship in exploring issues of memory, identity and power, as well as archives in non-western and postcolonial settings.
+Works Cited:
+Mejcher-Atassi, Sonja and John Pedro Schwartz (eds.). (2012). Archives, Museums and Collecting Practices in the Modern Arab World. Surrey, England: Ashgate Publishing.
+Volk, Lucia. (May 2008). When Memory Repeats Itself: The Politics of Heritage in Post Civil War Lebanon. International Journal of Middle East Studies 40(2): 291-314.</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1760,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1786,6 +1781,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2134,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2173,7 +2174,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2188,22 +2189,22 @@
         <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>371</v>
+        <v>327</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2223,16 +2224,16 @@
         <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>377</v>
+      <c r="I3" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2252,16 +2253,16 @@
         <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>377</v>
+      <c r="I4" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2272,7 +2273,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -2281,16 +2282,16 @@
         <v>19</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>377</v>
+      <c r="I5" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2310,16 +2311,16 @@
         <v>23</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>381</v>
+      <c r="I6" s="9" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2339,16 +2340,16 @@
         <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>381</v>
+      <c r="I7" s="9" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
@@ -2356,10 +2357,10 @@
         <v>2015007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -2368,16 +2369,16 @@
         <v>27</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>381</v>
+      <c r="I8" s="9" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2397,16 +2398,16 @@
         <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>275</v>
+      <c r="I9" s="9" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2426,16 +2427,16 @@
         <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>275</v>
+      <c r="I10" s="9" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2443,10 +2444,10 @@
         <v>2015010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -2455,16 +2456,16 @@
         <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>275</v>
+      <c r="I11" s="9" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2475,7 +2476,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>37</v>
@@ -2484,16 +2485,16 @@
         <v>38</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>276</v>
+      <c r="I12" s="9" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2504,7 +2505,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>37</v>
@@ -2513,16 +2514,16 @@
         <v>40</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>276</v>
+      <c r="I13" s="9" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2542,16 +2543,16 @@
         <v>43</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>276</v>
+      <c r="I14" s="9" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2559,10 +2560,10 @@
         <v>2015014</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>44</v>
@@ -2571,16 +2572,16 @@
         <v>45</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>277</v>
+      <c r="I15" s="9" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2600,16 +2601,16 @@
         <v>48</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>277</v>
+      <c r="I16" s="9" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2620,7 +2621,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>44</v>
@@ -2629,16 +2630,16 @@
         <v>50</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>393</v>
+        <v>469</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>277</v>
+      <c r="I17" s="9" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2658,16 +2659,16 @@
         <v>54</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>278</v>
+      <c r="I18" s="9" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2675,10 +2676,10 @@
         <v>2015018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>55</v>
@@ -2687,16 +2688,16 @@
         <v>56</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>279</v>
+      <c r="I19" s="9" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2704,10 +2705,10 @@
         <v>2015019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>57</v>
@@ -2716,16 +2717,16 @@
         <v>58</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>280</v>
+      <c r="I20" s="9" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2745,16 +2746,16 @@
         <v>60</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>280</v>
+      <c r="I21" s="9" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2774,16 +2775,16 @@
         <v>63</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>281</v>
+      <c r="I22" s="9" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2803,16 +2804,16 @@
         <v>66</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>281</v>
+      <c r="I23" s="9" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="390" x14ac:dyDescent="0.3">
@@ -2832,16 +2833,16 @@
         <v>68</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>281</v>
+      <c r="I24" s="9" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -2849,28 +2850,28 @@
         <v>2015024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>282</v>
+      <c r="I25" s="9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -2884,22 +2885,22 @@
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>371</v>
+        <v>327</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -2907,28 +2908,28 @@
         <v>2015026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>282</v>
+      <c r="I27" s="9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2942,22 +2943,22 @@
         <v>74</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>283</v>
+      <c r="I28" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2968,25 +2969,25 @@
         <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>283</v>
+      <c r="I29" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2994,28 +2995,28 @@
         <v>2015029</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>364</v>
+        <v>470</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>283</v>
+      <c r="I30" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3026,7 +3027,7 @@
         <v>80</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>81</v>
@@ -3035,16 +3036,16 @@
         <v>82</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>284</v>
+      <c r="I31" s="9" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3064,16 +3065,16 @@
         <v>84</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>284</v>
+      <c r="I32" s="9" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3093,16 +3094,16 @@
         <v>88</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>285</v>
+      <c r="I33" s="9" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3122,16 +3123,16 @@
         <v>91</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>285</v>
+      <c r="I34" s="9" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3151,16 +3152,16 @@
         <v>93</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>285</v>
+      <c r="I35" s="9" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3180,16 +3181,16 @@
         <v>97</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>286</v>
+      <c r="I36" s="9" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3209,16 +3210,16 @@
         <v>100</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>286</v>
+      <c r="I37" s="9" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
@@ -3238,16 +3239,16 @@
         <v>102</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>286</v>
+      <c r="I38" s="9" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3267,16 +3268,16 @@
         <v>106</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>287</v>
+      <c r="I39" s="9" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3296,16 +3297,16 @@
         <v>109</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>287</v>
+      <c r="I40" s="9" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -3313,10 +3314,10 @@
         <v>2015040</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>105</v>
@@ -3325,16 +3326,16 @@
         <v>110</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>287</v>
+      <c r="I41" s="9" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3354,19 +3355,19 @@
         <v>114</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="I42" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>2015042</v>
       </c>
@@ -3383,16 +3384,16 @@
         <v>116</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>288</v>
+      <c r="I43" s="9" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
@@ -3412,16 +3413,16 @@
         <v>119</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>288</v>
+      <c r="I44" s="9" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3429,28 +3430,28 @@
         <v>2015044</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>289</v>
+      <c r="I45" s="9" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -3461,7 +3462,7 @@
         <v>121</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>122</v>
@@ -3470,16 +3471,16 @@
         <v>123</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>290</v>
+      <c r="I46" s="9" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3499,16 +3500,16 @@
         <v>125</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>290</v>
+      <c r="I47" s="9" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3519,7 +3520,7 @@
         <v>126</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>122</v>
@@ -3528,16 +3529,16 @@
         <v>127</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>290</v>
+      <c r="I48" s="9" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
@@ -3557,16 +3558,16 @@
         <v>131</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>291</v>
+      <c r="I49" s="9" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3586,16 +3587,16 @@
         <v>134</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>291</v>
+      <c r="I50" s="9" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
@@ -3603,10 +3604,10 @@
         <v>2015050</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>130</v>
@@ -3615,16 +3616,16 @@
         <v>135</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>291</v>
+      <c r="I51" s="9" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3644,16 +3645,16 @@
         <v>139</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>292</v>
+      <c r="I52" s="9" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
@@ -3664,7 +3665,7 @@
         <v>140</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>138</v>
@@ -3673,16 +3674,16 @@
         <v>141</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>292</v>
+      <c r="I53" s="9" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3702,16 +3703,16 @@
         <v>144</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>292</v>
+      <c r="I54" s="9" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="312" x14ac:dyDescent="0.3">
@@ -3725,22 +3726,22 @@
         <v>146</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>371</v>
+        <v>327</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3760,16 +3761,16 @@
         <v>149</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>293</v>
+      <c r="I56" s="9" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3780,7 +3781,7 @@
         <v>150</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>148</v>
@@ -3789,16 +3790,16 @@
         <v>151</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>293</v>
+      <c r="I57" s="9" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3809,7 +3810,7 @@
         <v>152</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>148</v>
@@ -3818,16 +3819,16 @@
         <v>153</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>293</v>
+      <c r="I58" s="9" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3847,16 +3848,16 @@
         <v>156</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>294</v>
+      <c r="I59" s="9" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3876,16 +3877,16 @@
         <v>159</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>294</v>
+      <c r="I60" s="9" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3896,7 +3897,7 @@
         <v>160</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>155</v>
@@ -3905,16 +3906,16 @@
         <v>161</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>294</v>
+      <c r="I61" s="9" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3922,10 +3923,10 @@
         <v>2015061</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>162</v>
@@ -3934,16 +3935,16 @@
         <v>163</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>295</v>
+      <c r="I62" s="9" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3963,16 +3964,16 @@
         <v>166</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>296</v>
+      <c r="I63" s="9" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3992,16 +3993,16 @@
         <v>168</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>296</v>
+      <c r="I64" s="9" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4021,16 +4022,16 @@
         <v>171</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>296</v>
+      <c r="I65" s="9" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4050,16 +4051,16 @@
         <v>174</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>297</v>
+      <c r="I66" s="9" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4079,16 +4080,16 @@
         <v>177</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>297</v>
+      <c r="I67" s="9" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4108,16 +4109,16 @@
         <v>180</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>297</v>
+      <c r="I68" s="9" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4128,7 +4129,7 @@
         <v>181</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>182</v>
@@ -4137,16 +4138,16 @@
         <v>183</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>298</v>
+      <c r="I69" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4157,7 +4158,7 @@
         <v>184</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>182</v>
@@ -4166,16 +4167,16 @@
         <v>185</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>298</v>
+      <c r="I70" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4186,25 +4187,25 @@
         <v>186</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>299</v>
+        <v>327</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4224,16 +4225,16 @@
         <v>189</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>300</v>
+      <c r="I72" s="9" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4244,7 +4245,7 @@
         <v>190</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>188</v>
@@ -4253,16 +4254,16 @@
         <v>191</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>300</v>
+      <c r="I73" s="9" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
@@ -4282,16 +4283,16 @@
         <v>193</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>454</v>
+        <v>416</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>300</v>
+      <c r="I74" s="9" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4311,16 +4312,16 @@
         <v>196</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>301</v>
+      <c r="I75" s="9" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4340,16 +4341,16 @@
         <v>198</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>301</v>
+      <c r="I76" s="9" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4360,7 +4361,7 @@
         <v>199</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>195</v>
@@ -4369,16 +4370,16 @@
         <v>200</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>301</v>
+      <c r="I77" s="9" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4392,22 +4393,22 @@
         <v>74</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>202</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>302</v>
+      <c r="I78" s="9" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4418,7 +4419,7 @@
         <v>203</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>204</v>
@@ -4427,16 +4428,16 @@
         <v>205</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>303</v>
+      <c r="I79" s="9" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4456,16 +4457,16 @@
         <v>208</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>303</v>
+      <c r="I80" s="9" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4485,16 +4486,16 @@
         <v>210</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>303</v>
+      <c r="I81" s="9" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4514,16 +4515,16 @@
         <v>214</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I82" s="2" t="s">
-        <v>304</v>
+      <c r="I82" s="9" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4543,16 +4544,16 @@
         <v>216</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>304</v>
+      <c r="I83" s="9" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -4572,16 +4573,16 @@
         <v>219</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>304</v>
+      <c r="I84" s="9" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -4589,28 +4590,28 @@
         <v>2015084</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>282</v>
+        <v>327</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4621,25 +4622,25 @@
         <v>220</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>221</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I86" s="8" t="s">
-        <v>306</v>
+      <c r="I86" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="312" x14ac:dyDescent="0.3">
@@ -4653,22 +4654,22 @@
         <v>223</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I87" s="8" t="s">
-        <v>306</v>
+      <c r="I87" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4682,22 +4683,22 @@
         <v>226</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I88" s="8" t="s">
-        <v>306</v>
+      <c r="I88" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4711,22 +4712,22 @@
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I89" s="8" t="s">
-        <v>306</v>
+      <c r="I89" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4740,22 +4741,22 @@
         <v>104</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I90" s="8" t="s">
-        <v>306</v>
+      <c r="I90" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="234" x14ac:dyDescent="0.3">
@@ -4769,22 +4770,22 @@
         <v>16</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>233</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I91" s="8" t="s">
-        <v>306</v>
+      <c r="I91" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4798,22 +4799,22 @@
         <v>78</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>235</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I92" s="8" t="s">
-        <v>306</v>
+      <c r="I92" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4827,22 +4828,22 @@
         <v>78</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I93" s="8" t="s">
-        <v>306</v>
+      <c r="I93" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4856,22 +4857,22 @@
         <v>47</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I94" s="8" t="s">
-        <v>306</v>
+      <c r="I94" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4882,25 +4883,25 @@
         <v>238</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I95" s="8" t="s">
-        <v>306</v>
+      <c r="I95" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4911,25 +4912,25 @@
         <v>240</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I96" s="8" t="s">
-        <v>306</v>
+      <c r="I96" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4943,22 +4944,22 @@
         <v>74</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>243</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I97" s="8" t="s">
-        <v>306</v>
+      <c r="I97" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -4972,22 +4973,22 @@
         <v>245</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>246</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I98" s="8" t="s">
-        <v>306</v>
+      <c r="I98" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -5001,22 +5002,22 @@
         <v>78</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>248</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I99" s="8" t="s">
-        <v>306</v>
+      <c r="I99" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -5027,25 +5028,25 @@
         <v>249</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>250</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I100" s="8" t="s">
-        <v>306</v>
+      <c r="I100" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -5059,22 +5060,22 @@
         <v>252</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>253</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I101" s="8" t="s">
-        <v>306</v>
+      <c r="I101" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -5088,22 +5089,22 @@
         <v>255</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>256</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I102" s="8" t="s">
-        <v>306</v>
+      <c r="I102" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -5117,22 +5118,22 @@
         <v>226</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>258</v>
       </c>
       <c r="F103" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I103" s="10" t="s">
         <v>468</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -5140,28 +5141,28 @@
         <v>2015103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I104" s="8" t="s">
-        <v>306</v>
+      <c r="I104" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -5175,22 +5176,22 @@
         <v>65</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>261</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I105" s="8" t="s">
-        <v>306</v>
+      <c r="I105" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
@@ -5204,22 +5205,22 @@
         <v>78</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>263</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I106" s="8" t="s">
-        <v>306</v>
+      <c r="I106" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
@@ -5233,22 +5234,22 @@
         <v>47</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>265</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I107" s="8" t="s">
-        <v>306</v>
+      <c r="I107" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
@@ -5262,22 +5263,22 @@
         <v>267</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I108" s="8" t="s">
-        <v>306</v>
+      <c r="I108" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -5291,22 +5292,22 @@
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I109" s="8" t="s">
-        <v>306</v>
+      <c r="I109" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
@@ -5320,22 +5321,22 @@
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>272</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I110" s="8" t="s">
-        <v>306</v>
+      <c r="I110" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -5346,25 +5347,25 @@
         <v>273</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I111" s="8" t="s">
-        <v>306</v>
+      <c r="I111" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -5375,10 +5376,5 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/aeri2015_data_reconciled.xlsx
+++ b/aeri2015_data_reconciled.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Uploaded to GitHub and finalized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HeatherSoyka/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D09921-0EF8-4F87-A6E5-593452A010B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{443BA22E-F3E8-734D-AC44-38BA36850BDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14568" windowHeight="3120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="26600" windowHeight="14920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$111</definedName>
+  </definedNames>
+  <calcPr calcId="140000"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="473">
   <si>
     <t>ID Number</t>
   </si>
@@ -458,9 +466,6 @@
   </si>
   <si>
     <t>Matthew G. Kirschenbaum</t>
-  </si>
-  <si>
-    <t> University of Maryland</t>
   </si>
   <si>
     <t>Douglas W. Oard</t>
@@ -1191,11 +1196,6 @@
     <t>Anne J. Gilliland; Hariz Halilovich</t>
   </si>
   <si>
-    <t xml:space="preserve">This paper will provide a critical analysis of emergent themes, innovative pedagogical approaches, and lessons learned in an experimental graduate course entitled Migrating Memories: Diaspora, Archives and Human Rights. This face-to-face course, collaboratively taught as a series of day-long weekly seminars at UCLA in October and November 2014 by faculty members from UCLA (Gilliland, archival studies) and Monash University (Halilovich, anthropology) explored the (re)construction of migrants’ memories and identities as distinct transnational and translocal practices taking place in both private and public domains, in reality and imagination, and in the realms of real and cyber space. Building upon relevant intersections between their respective research interests and disciplinary backgrounds, Gilliland and Halilovich sought to expand the current scope and applicability of archival studies professional and research education to the study and documentation of the diasporic experience, especially where diaspora is a consequence of war, genocide and forced displacement. The course attracted students from the master’s programs in library and information science and Latin American studies, as well as from doctoral programs in anthropology, Chicana/o studies, education, English, history and information studies.
-Students were introduced to the significance of memory in establishing diasporas and explored various forms and practices, both tangible and intangible, of memory and memory work in migrant and refugee communities across generations: from oral histories and testimonials to performative enactments of memories (e.g., commemorations, exhibitions, art, literature, and film) to the establishment of more formal memory structures such as archives, libraries, museums, monuments, and documentary and print production. Employing fiction, creative non-fiction and documentary film as well as critical works, the course was consciously designed to move across humanities and arts as well as social science disciplinary perspectives. This pedagogical approach was also intended to encourage awareness of and receptivity to the many ways in which memory can find expression, to integrate participants’ personal backgrounds and motivations, and to encourage creative research and production (e.g., creative writing, art and music) as alternative forms of capturing and expressing the diasporic experience.
-</t>
-  </si>
-  <si>
     <t>Beginning in the late 20th century, Memory Studies gradually evolved from an area of interest to social historians into a distinct area of academic pedagogy touching many disciplines while developing a singular lens of its own. Courses in Memory Studies can be found in a variety of disciplines but there are relatively few in archival programs. Rather, memory issues are often implicit, rather than explicit components of archives courses. The interdisciplinarity of memory studies, however, offers exciting opportunities for synergy with archival education as well as raising questions about the nature of the relationship between memory and archives.
 This paper reports on an ongoing survey and analysis of memory studies courses offered in academic programs in the United States. Using over forty syllabi from a variety of programs as the primary data set, the survey includes an analysis of readings, programs, topics and assignments primarily culled online. A secondary data set analyzes conclusions reached by peer-reviewed articles about the emergence of Memory Studies as an academic discipline.
 The final portion of the presentation relates the teaching of memory studies to the teaching of archives. The shifting role of memory in light of the emergence of memory studies holds implications for archival pedagogy, not least of which is examining the changing role of memory in the understanding of archives and records.</t>
@@ -1226,9 +1226,6 @@
     <t>Special Session 2: NARA Challenges and Needs</t>
   </si>
   <si>
-    <t>What happens when a new source of records – a cache of documents of one of the main perpetrators of state violence, no less – suddenly becomes available in a country where historical memory is still in formation and justice for past crimes is still pending? This study analyzes surviving police records from the Historical Archive of the National Police (in Spanish, Archivo Historico de la Policía Nacional – AHPN). The AHPN holds valuable information about state surveillance and violence, and has been used for important research and trials. To complement those efforts, this research reviews individual records sub-collections, as well as analyzes a sample of the archive “population” as a whole, and asks: is there evidence of systematic denial, cover-up, dismissal, and censorship in this massive collection of surviving records?  Are there less deliberate silences, which nonetheless serve to keep aspects of history off the record? Indeed, the study finds evidence of silence in the surviving records that the PN produced using a multitude of mechanisms– internal practices of writing death reports, top-down micromanaging of the press, hiding detainees from courts and families, and use of disingenuous human rights rhetoric. In particular, it focuses on how certain police information policies and recordkeeping practices were consistent with macro political agendas and state projects. The findings of this study suggest that production of silences in records is an integral part of the historical explanation about how repression and violence in Guatemala persisted. Ultimately, this study emphasizes the need to understand what these historical records — or any source of information — hold and hide, in order to promote more valid and powerful consumption of them.</t>
-  </si>
-  <si>
     <t>In March 2013, visual artist Garrick Imatani and poet Kaia Sand were selected for the inaugural City of Portland Archives &amp; Record Center’s (PARC) Artist-in-Residence Program in Portland, Oregon, USA, through an award of a public art project by Portland’s Regional Arts &amp; Culture Council. The artist residency is the first in a series for this archive, with the goal of artists creating work in any media that engages and/or is a result of working with the archive’s collections and archivists. Imatani and Sand have been collaboratively engaging with, responding to, and using one of PARC’s collections, the Police Historical/Archival Investigative Files (a.k.a. The Watcher Files), a collection comprising thousands of surveillance documents collected by the Portland Police Bureau on civic and activist groups in the 1960s, 70s, and 80s. A significant part of the artists’ work in this residency is acknowledging and addressing silences in the archival record and the archive. Since January 2013, I have been conducting an ethnographic study of this residency program that explores the experiences and actions of the archivists, artists, and a public arts manager involved in the residency. As well, my study examines how these individuals, and others with whom they collaborate within this particular archival and public art milieu, conceptualize and ascribe meaning(s) to archival records and processes and the archive.
 This paper will first trace a life history or biography of these records, beginning with a brief discussion of the records’ creation and use within the Police Bureau, to their anonymous donation to and use by the Portland Tribune newspaper, to their acquisition and management by the archivists at PARC. Then, the paper will turn to the artists’ work, concentrating on how the artists are conceptualizing the records and the archive and transforming records into works of art and poetry. Imatani and Sand envision their work as an addendum to the records, a way to illustrate some of what is missing in the institutional record and the archive as well as investigate what is there. In collaboration with some of the individuals who were under surveillance and whose lives are caught in the records, the artists have created literary and artistic interventions in the forms of poetry objects, sculptures, and spoken word performances that combine official and personal memory, and that talk back to, annotate, and fill in some of the silences and gaps within the archival records. Throughout this discussion of the artists’ works with the records, this paper will also contemplate how archival records as works of art and poetry move and circulate through time, space, and a variety of contexts, and through this circulation and re-contextualization, bring into view what kinds of social relations can occur and histories accumulate between records, individuals, communities, and the archive.</t>
   </si>
@@ -1236,9 +1233,6 @@
     <t>Over the past decade “social justice” has increasingly been the object of study in a multitude of academic disciplines and professional fields of practice, including archives. Archives feature regularly in controversies over the weight and responsibility of the past and archivists suggest that records play an essential role in shaping common understanding about past injustices. However, the precise channels and depth of their impact remains poorly understood. There is a need to probe and delineate the social justice impact of archives as discussed by Duff, Flinn, Suurtamm and Wallace (2013).
 Children labeled “mentally defective” and “disabled”, or deemed difficult in Scotland were often placed in residential schools and children’s homes. Though policies such as the Children Act of 1948 emphasized the need to support children’s best interests, abuse occurred within the residential establishments. As many children were never given an outlet to express their grievances at the time, claims have surfaced of corporal punishments, beatings, and force-feeding (Abrahms 1998). No national standards or requirements were in place to assess children’s welfare, and no public accountability. Starting in the mid-1980s, there has been increased public concern and debate related to the abuse of children in residential care as the Kincora and Leeways “scandals” started to focus attention on the issue (Sen et al. 2008, 414). Public concern further heightened in the 1990s by the cases of Frank Beck (Leicestershire) and the “Pin-down scandal” in Staffordshire (Corby et al. 2001). Of note is the government-commissioned Children’s Safeguards Review, which led to the publication of the Kent Report in 1997 providing evidence of different forms of abuse in residential and foster care settings. This review was followed by a number of internal and external inquiries into the issues (Sen et al. 2008, 419). Recently, in 2004, the Scottish Parliament commissioned an independent review of residential school abuse, and in 2007, the Historical Abuse Systemic Review: Residential Schools and Children’s Homes in Scotland 1950 to 1995, or the Shaw Report, was published. The Shaw Report (2007) highlighted the tragic consequences of poor recordkeeping and recommended that the government “commission a review of public records legislation which should lead to new legislation being drafter to meet records and information needs in Scotland.” (p.7). The government subsequently created relevant legislation to implement more coherent and comprehensive recordkeeping practices. It also commissioned a report entitled Time to be Heard: A Pilot Forum (2011), to test the appropriateness and effectiveness of a confidential forum in giving survivors an opportunity to recount their experiences.
 This paper will discuss the impact of poor recordkeeping on the ability of survivors to learn about their past and seek legal redress. It would draw on various literatures that discuss the impact of records on care leavers as well as interviews with professionals who support care leavers in their search for records in Scotland, Scottish archivists working in this area, and Individuals who supported the work of the two commissioned reports.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Toronto; University of Toronto; University of Toronto; University of Toronto; </t>
   </si>
   <si>
     <t>Just as we encounter orphaned works in the print realm, the growth of social media and lower barriers for publishing to the Web contribute to a new breed of “orphaned” works. Abandoned, in the specific context of blogs, is possibly more accurate, as authorship is known, whether published to under a real name or pseudonymously. This presentation reports on a longitudinal study, on-going since 2011, that examines such abandoned blogs, characterized as blogs that remain publicly discoverable and available after they are no longer actively published or updated. Applying a content analysis approach, reported are findings from a review of final posts published to approximately 400 inactive scholar blogs. It examines what, if any, message is left behind at the assumed end of the blog’s life cycle. Such messages may be seen as one indicator of creators’ intentions or assumptions for their blogs’ continued persistence. For a clear majority of these blogs, there is no farewell post or “note tacked to the door,” with the blogs simply ending abruptly. A minority do leave a message as to where the blog has gone. Themes that arose from this analysis of “farewell” posts include intentions for archiving or to come back to the blog at a later date. Additionally, findings will be shared that report on a sort of Lazarus effect observed between data collection periods, where blogs once dormant, and assumed “dead,” become active again. This presentation concludes with preliminary findings from a survey of bloggers’ attitudes and reactions as to the continued persistence of their respective “abandoned” blogs in respect to their own personal blog preservation, or “unpreservation,” preferences.</t>
@@ -1412,10 +1406,6 @@
   <si>
     <t>Professor Elizabeth Shepherd, UCL Department of Information Studies, London Researchers at UCL in the Department of Information Studies are engaged in several research projects which focus on the management of records and administrative data in the public sector. This paper will report interim findings of research using government administrative data (part of an Economic and Social Science Research Council-funded five year project, ADRC-E) which seeks to promote wider research access to, and innovative linkage between, datasets held by UK government departments and agencies, thereby transforming the way data are currently converted into knowledge and evidence for public and economic policy. Early findings from a case study focusing on students’ educational data will be discussed. This research (carried out by Shepherd with colleagues, Dr Oliver Duke-Williams and Alexandra Eveleigh) draws upon in-depth interviews with academic researchers across a range of social scientific disciplines, data collection agents, civil servants responsible for assessing and administering access requests, and representatives from charitable foundations who commission research using government administrative data.
 I will be able to present some preliminary conclusions. I will also report on findings from another project, part of INTERPARES Trust, which is looking at the management of records and information in an open government environment, in particular in local government, and provide some analysis of similarities and differences between the two cases.</t>
-  </si>
-  <si>
-    <t>Data sharing and reuse has become a priority for many grant funding organizations, research institutions, publishers, and individual researchers. The potential for new combinations and analyses of data to reveal novel patterns and findings has made data sharing an important concern across a spectrum of research topics and methods. Methods for sharing research data range from person-to-person correspondence about data to datasets added to repositories created for a given discipline, data type, publication venue, or institution. These methods permit various kinds of communication about data as well, from informal communication to the standardized metadata and documentation required by some repositories. Data sharing infrastructure is being developed through the collaboration of numerous stakeholders, often from a particular research context with a deep understanding of the practices they intend to support. Anticipating the needs of interdisciplinary data reuse, however, is more complicated.
-This study examines the ways that members of an interdisciplinary research team share their data with each other and, in particular, the ways they communicate about the data they collect in order to make datasets meaningful and usable to other researchers in the team. This presentation is based on interviews and observations with members of an academic research team examining people’s responses to water quality problems in a community in the developing world. They are environmental scientists and sociologists using both observational data, collected from a variety of instruments, and interview data, obtained from members of the community. While team members understand how to use shared data emerging from their own disciplinary methods, they have a difficult time understanding how to analyze the data created by their colleagues: the sociologists are unsure how to make use of the environmental science data, and vice versa. By uncovering the communication tactics of this team, this presentation will shed light on some of the necessary elements for making data reuse possible outside a single discipline</t>
   </si>
   <si>
     <t>This presentation will present findings gathered via ethnographic methods for the dissertation. The dissertation explores how archives capture black lesbian experiences and how those materials are subsequently used. It employs comparative case study design at June Mazer Lesbian Archives, Schomberg Center for Research in Black Culture, and Lesbian Herstory Archive and interviews with archivist and researchers. The dissertation asks: how does record keeping culture affect black lesbian presence in archives and how do researchers access black lesbian materials and employ them in their research? The dissertation explores how recordkeeping cultures create or exacerbate silences in the historical record and how scholars navigate gaps when they access black lesbian archival records.
@@ -1485,9 +1475,6 @@
 * List major take away points and “immediate” next steps (e.g., task group, survey research, position paper, liaison with iConference)</t>
   </si>
   <si>
-    <t>The archival community, including professional organizations, should engage in advocacy work with regard to public controversies around new forms of records and recordkeeping practices, specifically those related to smartphone architecture and surveillance. This presentation uses one such controversy, the circulation of potentially revealing data created by minors via mandatory one-to-one tablet programs in public schools, to point out how archival theory can guide and potentially make productive use of public concerns and how the professional bodies of the archival field might meaningfully shape discourse and subsequent policy actions. First, this presentation uses a detailed, rich case study to describe the origins of one such controversy through a detailed study of a single one-to-one tablet computer program in the Los Angeles Unified School District. Based on class observations, photographs, and interviews with teachers, students, and administrators as a one-to-one program was rapidly rolled out over two consecutive school years in a South Los Angeles public high school of approximately 500 students, this project examines the variety of ways that a specific iteration of smartphone architecture (Apple’s iPad tablet and set of school-mandated apps) functions in the context of institutional recordkeeping, including classroom instruction, school discipline, and evaluation. Data generated by the use of tablets and apps in the school’s daily routines — e.g., instruction, discipline, evaluation, discipline — circulated largely beyond the reach of individual instructors, school administrators, or district personnel. In effect, data created by teachers, students, and administrators were only rarely and partially accessed through educational activity within the school, but completely accessible for analytics, aggregation, resale and market research. The bulk of processing and capture took place offsite, accomplished by private companies operating remotely. Second, this project reviews the general contours of the public controversy over the program as it played out in the regional and national press as a dispute over privacy and the appropriate role of technology. While policymakers and teachers’ unions expressed competing visions of public education and disputed the suitability of this particular one-to-one tablet computer program, all sides ignored surveillance concerns and overlooked a number of sites of student data capture, immediate implications of new regimes of recordkeeping, and potential conflicts with existing law. Finally, this project suggests ways that the broader archival community can meaningfully engage in this disputed and contentious terrain. Archival theory can help to crystalize inchoate public concerns over surveillance and ubiquitous data capture by defining smartphone user data in terms of networked records; introducing concepts of co-authorship and co-creatorship to student records creation; and extending ideas of communities of records to nuance claims based on technical utility. Archival professional bodies might increase their standing and relevance in the eyes of a perpetually indifferent public by explicitly engaging with these frequent controversies, particularly since they will likely continue to accompany the proliferation of smartphone architecture in many domains of everyday life.</t>
-  </si>
-  <si>
     <t>This paper will present the results of my doctoral work, a two-phase study on the user-friendliness of university archives websites in Canada. The goals are to determine how we can operationalize the Archival Reference Knowledge (ARK) (Duff, Yakel, &amp; Tibbo, 2013) framework to systematically investigate the websites of university archives and to determine undergraduate students’ expectations of Canadian university archives websites and the barriers they face when accessing these. I have gathered quantitative data about all Canadian universities with an archives website, in French and English (n=81) and asked undergraduates to answer a questionnaire on their expectations, the barriers they face, and the relative importance of various information features present on archives websites.
 One issue that relates to websites as an entry point into the collections rests with the ability to locate these websites. Subject access is still scant (Beattie, 1990; Beattie, 1997; Daniels &amp; Yakel, 2010) due to a lack of standardized controlled vocabularies and a lack of resources for archivists to provide such detailed descriptions. Access tools such as finding aids often don’t fulfill the needs of users (Yakel, 2002) or are simply too difficult to find online (Tibbo &amp; Meho, 2001). A lack of education in archival terminology and practices forces users to rely on library education and search paradigms, which skew their expectations regarding archival retrieval systems (Yakel, 2002). The ARK framework seeks to address many of these elements by articulating the types of knowledge needed to conduct good reference work and provide exemplary service to users. This framework can be used to assess existing archives websites and determine how user-friendly they are.
 A previous analysis of archives websites was performed, based on the Archival Intelligence model (Yakel &amp; Torres, 2003). Archival Intelligence served as a basis to articulate the ARK framework. Bromley (2010) examined 30 American university archives websites and found that the three dimensions of the Yakel’s (2013) AI model are either not fully addressed or not addressed in a systematic way. For phase one, the selected websites are analyzed using an adapted version of Bromley’s coding structure, combining features found in Katte (2002) and Gillispie (2005). The new coding structure is remapped to the ARK framework, with additional elements stemming from the ARK framework, e.g. contact information, instructional tools.
@@ -1671,18 +1658,34 @@
 Mejcher-Atassi, Sonja and John Pedro Schwartz (eds.). (2012). Archives, Museums and Collecting Practices in the Modern Arab World. Surrey, England: Ashgate Publishing.
 Volk, Lucia. (May 2008). When Memory Repeats Itself: The Politics of Heritage in Post Civil War Lebanon. International Journal of Middle East Studies 40(2): 291-314.</t>
   </si>
+  <si>
+    <t>University of Toronto; University of Toronto; University of Toronto; University of Toronto</t>
+  </si>
+  <si>
+    <t>This paper will provide a critical analysis of emergent themes, innovative pedagogical approaches, and lessons learned in an experimental graduate course entitled Migrating Memories: Diaspora, Archives and Human Rights. This face-to-face course, collaboratively taught as a series of day-long weekly seminars at UCLA in October and November 2014 by faculty members from UCLA (Gilliland, archival studies) and Monash University (Halilovich, anthropology) explored the (re)construction of migrants’ memories and identities as distinct transnational and translocal practices taking place in both private and public domains, in reality and imagination, and in the realms of real and cyber space. Building upon relevant intersections between their respective research interests and disciplinary backgrounds, Gilliland and Halilovich sought to expand the current scope and applicability of archival studies professional and research education to the study and documentation of the diasporic experience, especially where diaspora is a consequence of war, genocide and forced displacement. The course attracted students from the master’s programs in library and information science and Latin American studies, as well as from doctoral programs in anthropology, Chicana/o studies, education, English, history and information studies.
+Students were introduced to the significance of memory in establishing diasporas and explored various forms and practices, both tangible and intangible, of memory and memory work in migrant and refugee communities across generations: from oral histories and testimonials to performative enactments of memories (e.g., commemorations, exhibitions, art, literature, and film) to the establishment of more formal memory structures such as archives, libraries, museums, monuments, and documentary and print production. Employing fiction, creative non-fiction and documentary film as well as critical works, the course was consciously designed to move across humanities and arts as well as social science disciplinary perspectives. This pedagogical approach was also intended to encourage awareness of and receptivity to the many ways in which memory can find expression, to integrate participants’ personal backgrounds and motivations, and to encourage creative research and production (e.g., creative writing, art and music) as alternative forms of capturing and expressing the diasporic experience.</t>
+  </si>
+  <si>
+    <t>What happens when a new source of records – a cache of documents of one of the main perpetrators of state violence, no less – suddenly becomes available in a country where historical memory is still in formation and justice for past crimes is still pending? This study analyzes surviving police records from the Historical Archive of the National Police (in Spanish, Archivo Historico de la Policía Nacional – AHPN). The AHPN holds valuable information about state surveillance and violence, and has been used for important research and trials. To complement those efforts, this research reviews individual records sub-collections, as well as analyzes a sample of the archive “population” as a whole, and asks: is there evidence of systematic denial, cover-up, dismissal, and censorship in this massive collection of surviving records?  Are there less deliberate silences, which nonetheless serve to keep aspects of history off the record? Indeed, the study finds evidence of silence in the surviving records that the PN produced using a multitude of mechanisms– internal practices of writing death reports, top-down micromanaging of the press, hiding detainees from courts and families, and use of disingenuous human rights rhetoric. In particular, it focuses on how certain police information policies and recordkeeping practices were consistent with macro political agendas and state projects. The findings of this study suggest that production of silences in records is an integral part of the historical explanation about how repression and violence in Guatemala persisted. Ultimately, this study emphasizes the need to understand what these historical records—or any source of information—hold and hide, in order to promote more valid and powerful consumption of them.</t>
+  </si>
+  <si>
+    <t>Data sharing and reuse has become a priority for many grant funding organizations, research institutions, publishers, and individual researchers. The potential for new combinations and analyses of data to reveal novel patterns and findings has made data sharing an important concern across a spectrum of research topics and methods. Methods for sharing research data range from person-to-person correspondence about data to datasets added to repositories created for a given discipline, data type, publication venue, or institution. These methods permit various kinds of communication about data as well, from informal communication to the standardized metadata and documentation required by some repositories. Data sharing infrastructure is being developed through the collaboration of numerous stakeholders, often from a particular research context with a deep understanding of the practices they intend to support. Anticipating the needs of interdisciplinary data reuse, however, is more complicated.
+This study examines the ways that members of an interdisciplinary research team share their data with each other and, in particular, the ways they communicate about the data they collect in order to make datasets meaningful and usable to other researchers in the team. This presentation is based on interviews and observations with members of an academic research team examining people’s responses to water quality problems in a community in the developing world. They are environmental scientists and sociologists using both observational data, collected from a variety of instruments, and interview data, obtained from members of the community. While team members understand how to use shared data emerging from their own disciplinary methods, they have a difficult time understanding how to analyze the data created by their colleagues: the sociologists are unsure how to make use of the environmental science data, and vice versa. By uncovering the communication tactics of this team, this presentation will shed light on some of the necessary elements for making data reuse possible outside a single discipline.</t>
+  </si>
+  <si>
+    <t>The archival community, including professional organizations, should engage in advocacy work with regard to public controversies around new forms of records and recordkeeping practices, specifically those related to smartphone architecture and surveillance. This presentation uses one such controversy, the circulation of potentially revealing data created by minors via mandatory one-to-one tablet programs in public schools, to point out how archival theory can guide and potentially make productive use of public concerns and how the professional bodies of the archival field might meaningfully shape discourse and subsequent policy actions. First, this presentation uses a detailed, rich case study to describe the origins of one such controversy through a detailed study of a single one-to-one tablet computer program in the Los Angeles Unified School District. Based on class observations, photographs, and interviews with teachers, students, and administrators as a one-to-one program was rapidly rolled out over two consecutive school years in a South Los Angeles public high school of approximately 500 students, this project examines the variety of ways that a specific iteration of smartphone architecture (Apple’s iPad tablet and set of school-mandated apps) functions in the context of institutional recordkeeping, including classroom instruction, school discipline, and evaluation. Data generated by the use of tablets and apps in the school’s daily routines—e.g., instruction, discipline, evaluation, discipline—circulated largely beyond the reach of individual instructors, school administrators, or district personnel. In effect, data created by teachers, students, and administrators were only rarely and partially accessed through educational activity within the school, but completely accessible for analytics, aggregation, resale and market research. The bulk of processing and capture took place offsite, accomplished by private companies operating remotely. Second, this project reviews the general contours of the public controversy over the program as it played out in the regional and national press as a dispute over privacy and the appropriate role of technology. While policymakers and teachers’ unions expressed competing visions of public education and disputed the suitability of this particular one-to-one tablet computer program, all sides ignored surveillance concerns and overlooked a number of sites of student data capture, immediate implications of new regimes of recordkeeping, and potential conflicts with existing law. Finally, this project suggests ways that the broader archival community can meaningfully engage in this disputed and contentious terrain. Archival theory can help to crystalize inchoate public concerns over surveillance and ubiquitous data capture by defining smartphone user data in terms of networked records; introducing concepts of co-authorship and co-creatorship to student records creation; and extending ideas of communities of records to nuance claims based on technical utility. Archival professional bodies might increase their standing and relevance in the eyes of a perpetually indifferent public by explicitly engaging with these frequent controversies, particularly since they will likely continue to accompany the proliferation of smartphone architecture in many domains of everyday life.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1717,6 +1720,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2135,21 +2144,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="29.19921875" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="28.19921875" customWidth="1"/>
-    <col min="6" max="6" width="45.796875" customWidth="1"/>
-    <col min="7" max="9" width="21.69921875" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" customWidth="1"/>
+    <col min="7" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2015001</v>
       </c>
@@ -2189,25 +2199,25 @@
         <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2015002</v>
       </c>
@@ -2224,19 +2234,19 @@
         <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2015003</v>
       </c>
@@ -2253,19 +2263,19 @@
         <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2015004</v>
       </c>
@@ -2273,7 +2283,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -2282,19 +2292,19 @@
         <v>19</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2015005</v>
       </c>
@@ -2311,19 +2321,19 @@
         <v>23</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2015006</v>
       </c>
@@ -2340,27 +2350,27 @@
         <v>26</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2015007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -2369,19 +2379,19 @@
         <v>27</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2015008</v>
       </c>
@@ -2398,19 +2408,19 @@
         <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2015009</v>
       </c>
@@ -2427,27 +2437,27 @@
         <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2015010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -2456,19 +2466,19 @@
         <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2015011</v>
       </c>
@@ -2476,7 +2486,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>37</v>
@@ -2485,19 +2495,19 @@
         <v>38</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2015012</v>
       </c>
@@ -2505,7 +2515,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>37</v>
@@ -2514,19 +2524,19 @@
         <v>40</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2015013</v>
       </c>
@@ -2543,27 +2553,27 @@
         <v>43</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2015014</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>44</v>
@@ -2572,19 +2582,19 @@
         <v>45</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2015015</v>
       </c>
@@ -2601,19 +2611,19 @@
         <v>48</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2015016</v>
       </c>
@@ -2621,7 +2631,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>44</v>
@@ -2630,19 +2640,19 @@
         <v>50</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2015017</v>
       </c>
@@ -2659,27 +2669,27 @@
         <v>54</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2015018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>55</v>
@@ -2688,27 +2698,27 @@
         <v>56</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2015019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>57</v>
@@ -2717,19 +2727,19 @@
         <v>58</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>363</v>
+        <v>469</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2015020</v>
       </c>
@@ -2746,19 +2756,19 @@
         <v>60</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2015021</v>
       </c>
@@ -2775,19 +2785,19 @@
         <v>63</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2015022</v>
       </c>
@@ -2804,19 +2814,19 @@
         <v>66</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2015023</v>
       </c>
@@ -2833,48 +2843,48 @@
         <v>68</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2015024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2015025</v>
       </c>
@@ -2885,54 +2895,54 @@
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E26" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2015026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2015027</v>
       </c>
@@ -2943,25 +2953,25 @@
         <v>74</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>373</v>
+        <v>470</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2015028</v>
       </c>
@@ -2969,57 +2979,57 @@
         <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2015029</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>376</v>
+        <v>468</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2015030</v>
       </c>
@@ -3027,7 +3037,7 @@
         <v>80</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>81</v>
@@ -3036,19 +3046,19 @@
         <v>82</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2015031</v>
       </c>
@@ -3065,19 +3075,19 @@
         <v>84</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2015032</v>
       </c>
@@ -3094,19 +3104,19 @@
         <v>88</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2015033</v>
       </c>
@@ -3123,19 +3133,19 @@
         <v>91</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2015034</v>
       </c>
@@ -3152,19 +3162,19 @@
         <v>93</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2015035</v>
       </c>
@@ -3181,19 +3191,19 @@
         <v>97</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2015036</v>
       </c>
@@ -3210,19 +3220,19 @@
         <v>100</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2015037</v>
       </c>
@@ -3239,19 +3249,19 @@
         <v>102</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2015038</v>
       </c>
@@ -3268,19 +3278,19 @@
         <v>106</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2015039</v>
       </c>
@@ -3297,27 +3307,27 @@
         <v>109</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2015040</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>105</v>
@@ -3326,19 +3336,19 @@
         <v>110</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2015041</v>
       </c>
@@ -3355,19 +3365,19 @@
         <v>114</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2015042</v>
       </c>
@@ -3384,19 +3394,19 @@
         <v>116</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2015043</v>
       </c>
@@ -3413,48 +3423,48 @@
         <v>119</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2015044</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2015045</v>
       </c>
@@ -3462,7 +3472,7 @@
         <v>121</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>122</v>
@@ -3471,19 +3481,19 @@
         <v>123</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2015046</v>
       </c>
@@ -3500,19 +3510,19 @@
         <v>125</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2015047</v>
       </c>
@@ -3520,7 +3530,7 @@
         <v>126</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>122</v>
@@ -3529,19 +3539,19 @@
         <v>127</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2015048</v>
       </c>
@@ -3558,19 +3568,19 @@
         <v>131</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2015049</v>
       </c>
@@ -3587,27 +3597,27 @@
         <v>134</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2015050</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>130</v>
@@ -3616,19 +3626,19 @@
         <v>135</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2015051</v>
       </c>
@@ -3645,19 +3655,19 @@
         <v>139</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2015052</v>
       </c>
@@ -3665,7 +3675,7 @@
         <v>140</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>138</v>
@@ -3674,19 +3684,19 @@
         <v>141</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2015053</v>
       </c>
@@ -3703,19 +3713,19 @@
         <v>144</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="312" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2015054</v>
       </c>
@@ -3723,1658 +3733,1664 @@
         <v>145</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2015055</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F56" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>2015056</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F57" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>2015057</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F58" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2015058</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F59" s="6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2015059</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F60" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2015060</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F61" s="6" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>2015061</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F62" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>2015062</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F63" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2015063</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>2015064</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F65" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2015065</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="F66" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>2015066</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F67" s="6" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>2015067</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F68" s="6" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>2015068</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="F69" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2015069</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F70" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>2015070</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>2015071</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="F72" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2015072</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="F73" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2015073</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="F74" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>2015074</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F75" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>2015075</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>2015076</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F77" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>2015077</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>2015078</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="F79" s="6" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>2015079</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="F80" s="6" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2015080</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F81" s="6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2015081</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="F82" s="6" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>2015082</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="F83" s="6" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>2015083</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="F84" s="6" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>2015084</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="F85" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>2015085</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="F86" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="312" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>2015086</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="F87" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>2015087</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="F88" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>2015088</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>2015089</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="234" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>2015090</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>2015091</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>2015092</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>2015093</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>2015094</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="F95" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>2015095</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="F96" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>2015096</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>2015097</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="F98" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>2015098</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>2015099</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="F100" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>2015100</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="F101" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>2015101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="F102" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>2015102</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="F103" s="6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>2015103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>2015104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>2015105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="358.8" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>2015106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>2015107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="F108" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>2015108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>2015109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>2015110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1" location="bertot" display="http://aeri2015.umd.edu/keynote-speakers/ - bertot" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B71" r:id="rId2" location="ferriter" display="http://aeri2015.umd.edu/keynote-speakers/ - ferriter" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E26" r:id="rId3" location="bertot" display="http://aeri2015.umd.edu/keynote-speakers/ - bertot" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>